--- a/Ciclo II/Especificacion de diseño/PD-Control-de-asignaciones.xlsx
+++ b/Ciclo II/Especificacion de diseño/PD-Control-de-asignaciones.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajcalderonm/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\Documents\CICLO 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19BA59E8-AC82-CC41-B55F-DE918F453BB3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470A15DE-C902-46E7-A0CB-93A77BC2B712}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asignaciones" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Asignaciones!$A$7:$K$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Asignaciones!$A$7:$K$35</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>Observaciones</t>
   </si>
@@ -145,22 +145,22 @@
     <t>Reunión Arquitectura y diseño de software</t>
   </si>
   <si>
-    <t xml:space="preserve">Revisar y modificar plantillas de documentos: </t>
-  </si>
-  <si>
     <t>Modificar SDS: Formato de decisiones para cada vista, modelo interfaz gráfica</t>
   </si>
   <si>
     <t>Modificar SDS: Diseño detallado: modelo de clases y modelo entidad relación</t>
   </si>
   <si>
-    <t>Modificar SDS: Introducción según alcance, decisión acerca del estilo de la arquitectura y formato de decisiones</t>
-  </si>
-  <si>
     <t>Revisión Especificación de diseño de software</t>
   </si>
   <si>
     <t>TAREA: Arquitectura y diseño de software</t>
+  </si>
+  <si>
+    <t>Revisar y modificar plantillas de documentos: Especificación de diseño, bitacoras y diseño de interfaces</t>
+  </si>
+  <si>
+    <t>Modificar SDS: Introducción según alcance, decisión acerca del estilo de la arquitectura, y correciones documento</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -778,15 +778,6 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1261,30 +1252,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="53.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="21" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="11.5" style="2"/>
+    <col min="5" max="5" width="31.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="49"/>
       <c r="B1" s="51" t="s">
         <v>8</v>
@@ -1299,7 +1290,7 @@
       <c r="J1" s="53"/>
       <c r="K1" s="54"/>
     </row>
-    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="50"/>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
@@ -1312,7 +1303,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="s">
         <v>10</v>
       </c>
@@ -1323,7 +1314,7 @@
       <c r="D3" s="62"/>
       <c r="E3" s="63"/>
       <c r="F3" s="61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
@@ -1333,7 +1324,7 @@
       </c>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
       <c r="B4" s="64"/>
       <c r="C4" s="65"/>
@@ -1350,8 +1341,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>8</v>
       </c>
@@ -1366,7 +1357,7 @@
       <c r="J6" s="70"/>
       <c r="K6" s="71"/>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
@@ -1397,190 +1388,244 @@
       <c r="J7" s="74"/>
       <c r="K7" s="75"/>
     </row>
-    <row r="8" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="40">
         <v>30</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="11">
         <v>43220</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="F8" s="11">
+        <v>43220</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
       <c r="I8" s="46"/>
       <c r="J8" s="47"/>
       <c r="K8" s="48"/>
     </row>
-    <row r="9" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="40">
         <v>30</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="11">
         <v>43220</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
+      <c r="F9" s="11">
+        <v>43220</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
       <c r="I9" s="46"/>
       <c r="J9" s="47"/>
       <c r="K9" s="48"/>
     </row>
-    <row r="10" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="40">
         <v>30</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="11">
         <v>43220</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="F10" s="11">
+        <v>43220</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
       <c r="I10" s="46"/>
       <c r="J10" s="47"/>
       <c r="K10" s="48"/>
     </row>
-    <row r="11" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="40">
         <v>30</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="11">
         <v>43220</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
+      <c r="F11" s="11">
+        <v>43220</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
       <c r="I11" s="46"/>
       <c r="J11" s="47"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="40">
         <v>30</v>
       </c>
-      <c r="D12" s="77">
+      <c r="D12" s="11">
         <v>43220</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="F12" s="11">
+        <v>43220</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
       <c r="I12" s="46"/>
       <c r="J12" s="47"/>
       <c r="K12" s="48"/>
     </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="40">
         <v>30</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D13" s="11">
         <v>43220</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
+      <c r="F13" s="11">
+        <v>43220</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
       <c r="I13" s="46"/>
       <c r="J13" s="47"/>
       <c r="K13" s="48"/>
     </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="76">
-        <v>30</v>
-      </c>
-      <c r="D14" s="77">
+        <v>13</v>
+      </c>
+      <c r="C14" s="40">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11">
         <v>43220</v>
       </c>
-      <c r="E14" s="78">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
+      <c r="E14" s="12">
+        <v>0.875</v>
+      </c>
+      <c r="F14" s="11">
+        <v>43220</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.875</v>
+      </c>
+      <c r="H14" s="13">
+        <v>10</v>
+      </c>
       <c r="I14" s="46"/>
       <c r="J14" s="47"/>
       <c r="K14" s="48"/>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="40">
+        <v>35</v>
+      </c>
+      <c r="D15" s="11">
+        <v>43220</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F15" s="11">
+        <v>43220</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H15" s="13">
+        <v>15</v>
+      </c>
       <c r="I15" s="46"/>
       <c r="J15" s="47"/>
       <c r="K15" s="48"/>
     </row>
-    <row r="16" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="40">
         <v>35</v>
@@ -1591,22 +1636,28 @@
       <c r="E16" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="F16" s="11">
+        <v>43220</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H16" s="13">
+        <v>15</v>
+      </c>
       <c r="I16" s="46"/>
       <c r="J16" s="47"/>
       <c r="K16" s="48"/>
     </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C17" s="40">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D17" s="11">
         <v>43220</v>
@@ -1614,19 +1665,25 @@
       <c r="E17" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
+      <c r="F17" s="11">
+        <v>43220</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H17" s="13">
+        <v>-10</v>
+      </c>
       <c r="I17" s="46"/>
       <c r="J17" s="47"/>
       <c r="K17" s="48"/>
     </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C18" s="40">
         <v>40</v>
@@ -1637,19 +1694,25 @@
       <c r="E18" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
+      <c r="F18" s="11">
+        <v>43220</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H18" s="13">
+        <v>-10</v>
+      </c>
       <c r="I18" s="46"/>
       <c r="J18" s="47"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:11" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="40">
         <v>40</v>
@@ -1660,19 +1723,25 @@
       <c r="E19" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="F19" s="11">
+        <v>43220</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
       <c r="I19" s="46"/>
       <c r="J19" s="47"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C20" s="40">
         <v>40</v>
@@ -1683,42 +1752,54 @@
       <c r="E20" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
+      <c r="F20" s="11">
+        <v>43220</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
       <c r="I20" s="46"/>
       <c r="J20" s="47"/>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="1:11" s="14" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C21" s="40">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D21" s="11">
-        <v>43220</v>
+        <v>43221</v>
       </c>
       <c r="E21" s="12">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F21" s="11">
+        <v>43221</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
       <c r="I21" s="46"/>
       <c r="J21" s="47"/>
       <c r="K21" s="48"/>
     </row>
-    <row r="22" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="40">
         <v>30</v>
@@ -1729,19 +1810,25 @@
       <c r="E22" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
+      <c r="F22" s="11">
+        <v>43221</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
       <c r="I22" s="46"/>
       <c r="J22" s="47"/>
       <c r="K22" s="48"/>
     </row>
-    <row r="23" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C23" s="40">
         <v>30</v>
@@ -1752,19 +1839,25 @@
       <c r="E23" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
+      <c r="F23" s="11">
+        <v>43221</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
       <c r="I23" s="46"/>
       <c r="J23" s="47"/>
       <c r="K23" s="48"/>
     </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C24" s="40">
         <v>30</v>
@@ -1775,19 +1868,25 @@
       <c r="E24" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
+      <c r="F24" s="11">
+        <v>43221</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
       <c r="I24" s="46"/>
       <c r="J24" s="47"/>
       <c r="K24" s="48"/>
     </row>
-    <row r="25" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C25" s="40">
         <v>30</v>
@@ -1798,19 +1897,25 @@
       <c r="E25" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
+      <c r="F25" s="11">
+        <v>43221</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
       <c r="I25" s="46"/>
       <c r="J25" s="47"/>
       <c r="K25" s="48"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C26" s="40">
         <v>30</v>
@@ -1821,42 +1926,54 @@
       <c r="E26" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
+      <c r="F26" s="11">
+        <v>43221</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
       <c r="I26" s="46"/>
       <c r="J26" s="47"/>
       <c r="K26" s="48"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C27" s="40">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D27" s="11">
         <v>43221</v>
       </c>
       <c r="E27" s="12">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F27" s="11">
+        <v>43221</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
       <c r="I27" s="46"/>
       <c r="J27" s="47"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="40">
         <v>10</v>
@@ -1867,19 +1984,25 @@
       <c r="E28" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
+      <c r="F28" s="11">
+        <v>43221</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H28" s="13">
+        <v>-5</v>
+      </c>
       <c r="I28" s="46"/>
       <c r="J28" s="47"/>
       <c r="K28" s="48"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C29" s="40">
         <v>10</v>
@@ -1890,19 +2013,25 @@
       <c r="E29" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
+      <c r="F29" s="11">
+        <v>43221</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
       <c r="I29" s="46"/>
       <c r="J29" s="47"/>
       <c r="K29" s="48"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C30" s="40">
         <v>10</v>
@@ -1913,19 +2042,25 @@
       <c r="E30" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
+      <c r="F30" s="11">
+        <v>43221</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
       <c r="I30" s="46"/>
       <c r="J30" s="47"/>
       <c r="K30" s="48"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C31" s="40">
         <v>10</v>
@@ -1936,19 +2071,25 @@
       <c r="E31" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="48"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F31" s="11">
+        <v>43221</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="39"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C32" s="40">
         <v>10</v>
@@ -1959,16 +2100,22 @@
       <c r="E32" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="39"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F32" s="11">
+        <v>43221</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="48"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>14</v>
@@ -1980,24 +2127,30 @@
         <v>43221</v>
       </c>
       <c r="E33" s="12">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F33" s="11">
+        <v>43221</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H33" s="13">
+        <v>5</v>
+      </c>
       <c r="I33" s="46"/>
       <c r="J33" s="47"/>
       <c r="K33" s="48"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C34" s="40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" s="11">
         <v>43221</v>
@@ -2005,22 +2158,28 @@
       <c r="E34" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
+      <c r="F34" s="11">
+        <v>43221</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H34" s="13">
+        <v>5</v>
+      </c>
       <c r="I34" s="46"/>
       <c r="J34" s="47"/>
       <c r="K34" s="48"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
-        <v>21</v>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="40">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D35" s="11">
         <v>43221</v>
@@ -2028,63 +2187,59 @@
       <c r="E35" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
+      <c r="F35" s="11">
+        <v>43221</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
       <c r="I35" s="46"/>
       <c r="J35" s="47"/>
       <c r="K35" s="48"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="40">
-        <v>10</v>
-      </c>
-      <c r="D36" s="11">
-        <v>43221</v>
-      </c>
-      <c r="E36" s="12">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="48"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="17"/>
       <c r="J38" s="23"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2097,7 +2252,7 @@
       <c r="J39" s="23"/>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2108,9 +2263,9 @@
       <c r="H40" s="14"/>
       <c r="I40" s="17"/>
       <c r="J40" s="23"/>
-      <c r="K40" s="24"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K40" s="23"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2123,7 +2278,7 @@
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2136,7 +2291,7 @@
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2147,9 +2302,9 @@
       <c r="H43" s="14"/>
       <c r="I43" s="17"/>
       <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2159,353 +2314,365 @@
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="24"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="41">
+        <f>SUM(C48:D53)</f>
+        <v>705</v>
+      </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="14"/>
-      <c r="B46" s="31" t="s">
+      <c r="G45" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="41">
-        <f>SUM(C49:D54)</f>
-        <v>715</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="41">
-        <f>SUM(I49:J54)</f>
-        <v>790</v>
-      </c>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H45" s="41">
+        <f>SUM(I48:J53)</f>
+        <v>745</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="25"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="72"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="72"/>
       <c r="K47" s="25"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="72"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="42">
+        <f>COUNTIF(B8:B35,"LE")</f>
+        <v>5</v>
+      </c>
+      <c r="C48" s="67">
+        <f>SUMIFS($C$8:$C$35,$B$8:$B$35,"LE")</f>
+        <v>115</v>
+      </c>
+      <c r="D48" s="68"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="42">
+        <f>B48</f>
+        <v>5</v>
+      </c>
+      <c r="I48" s="67">
+        <v>130</v>
+      </c>
+      <c r="J48" s="68"/>
       <c r="K48" s="25"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B49" s="42">
-        <f>COUNTIF(B8:B36,"LE")</f>
+        <f>COUNTIF(B8:B35,"LP")</f>
         <v>5</v>
       </c>
       <c r="C49" s="67">
-        <f>SUMIFS($C$8:$C$36,$B$8:$B$36,"LE")</f>
-        <v>115</v>
+        <f>SUMIFS($C$8:$C$35,$B$8:$B$35,"LP")</f>
+        <v>120</v>
       </c>
       <c r="D49" s="68"/>
       <c r="E49" s="33"/>
       <c r="F49" s="34"/>
       <c r="G49" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H49" s="42">
-        <f>B49</f>
+        <f t="shared" ref="H49:H53" si="0">B49</f>
         <v>5</v>
       </c>
       <c r="I49" s="67">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J49" s="68"/>
       <c r="K49" s="25"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B50" s="42">
-        <f>COUNTIF(B8:B36,"LP")</f>
-        <v>6</v>
+        <f>COUNTIF(B8:B35,"LS")</f>
+        <v>5</v>
       </c>
       <c r="C50" s="67">
-        <f>SUMIFS($C$8:$C$36,$B$8:$B$36,"LP")</f>
-        <v>150</v>
+        <f>SUMIFS($C$8:$C$35,$B$8:$B$35,"LS")</f>
+        <v>120</v>
       </c>
       <c r="D50" s="68"/>
       <c r="E50" s="33"/>
       <c r="F50" s="34"/>
       <c r="G50" s="32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50" s="42">
-        <f t="shared" ref="H50:H54" si="0">B50</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="I50" s="67">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J50" s="68"/>
       <c r="K50" s="25"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B51" s="42">
-        <f>COUNTIF(B8:B36,"LS")</f>
-        <v>5</v>
+        <f>COUNTIF(B8:B35,"LD")</f>
+        <v>4</v>
       </c>
       <c r="C51" s="67">
-        <f>SUMIFS($C$8:$C$36,$B$8:$B$36,"LS")</f>
-        <v>120</v>
+        <f>SUMIFS($C$8:$C$35,$B$8:$B$35,"LD")</f>
+        <v>110</v>
       </c>
       <c r="D51" s="68"/>
       <c r="E51" s="33"/>
       <c r="F51" s="34"/>
       <c r="G51" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H51" s="42">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I51" s="67">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J51" s="68"/>
       <c r="K51" s="25"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B52" s="42">
-        <f>COUNTIF(B8:B36,"LD")</f>
-        <v>4</v>
+        <f>COUNTIF(B8:B35,"LC")</f>
+        <v>5</v>
       </c>
       <c r="C52" s="67">
-        <f>SUMIFS($C$8:$C$36,$B$8:$B$36,"LD")</f>
-        <v>110</v>
+        <f>SUMIFS($C$8:$C$35,$B$8:$B$35,"LC")</f>
+        <v>130</v>
       </c>
       <c r="D52" s="68"/>
       <c r="E52" s="33"/>
-      <c r="F52" s="34"/>
+      <c r="F52" s="35"/>
       <c r="G52" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H52" s="42">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I52" s="67">
+        <v>140</v>
+      </c>
+      <c r="J52" s="68"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="42">
+        <f>COUNTIF(B8:B35,"LA")</f>
         <v>4</v>
       </c>
-      <c r="I52" s="67">
-        <v>120</v>
-      </c>
-      <c r="J52" s="68"/>
-      <c r="K52" s="25"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="42">
-        <f>COUNTIF(B8:B36,"LC")</f>
-        <v>5</v>
-      </c>
       <c r="C53" s="67">
-        <f>SUMIFS($C$8:$C$36,$B$8:$B$36,"LC")</f>
+        <f>SUMIFS($C$8:$C$35,$B$8:$B$35,"LA")</f>
         <v>110</v>
       </c>
       <c r="D53" s="68"/>
       <c r="E53" s="33"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="32" t="s">
-        <v>36</v>
+      <c r="F53" s="34"/>
+      <c r="G53" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="H53" s="42">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I53" s="67">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J53" s="68"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="42">
-        <f>COUNTIF(B8:B36,"LA")</f>
-        <v>4</v>
-      </c>
-      <c r="C54" s="67">
-        <f>SUMIFS($C$8:$C$36,$B$8:$B$36,"LA")</f>
-        <v>110</v>
-      </c>
-      <c r="D54" s="68"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" s="42">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I54" s="67">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E54" s="28"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="42">
+        <v>10</v>
+      </c>
+      <c r="C56" s="67">
+        <f>C48</f>
+        <v>115</v>
+      </c>
+      <c r="D56" s="68"/>
+      <c r="E56" s="43">
+        <f>I48</f>
         <v>130</v>
       </c>
-      <c r="J54" s="68"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E55" s="28"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F56" s="44">
+        <f>C56-E56</f>
+        <v>-15</v>
+      </c>
+      <c r="G56" s="42">
+        <f>F56/C56*100</f>
+        <v>-13.043478260869565</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B57" s="42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C57" s="67">
-        <f>C49</f>
-        <v>115</v>
+        <f t="shared" ref="C57:C61" si="1">C49</f>
+        <v>120</v>
       </c>
       <c r="D57" s="68"/>
       <c r="E57" s="43">
-        <f>I49</f>
-        <v>135</v>
+        <f t="shared" ref="E57:E61" si="2">I49</f>
+        <v>130</v>
       </c>
       <c r="F57" s="44">
-        <f>C57-E57</f>
-        <v>-20</v>
+        <f t="shared" ref="F57:F61" si="3">C57-E57</f>
+        <v>-10</v>
       </c>
       <c r="G57" s="42">
-        <f>F57/C57*100</f>
-        <v>-17.391304347826086</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+        <f t="shared" ref="G57:G61" si="4">F57/C57*100</f>
+        <v>-8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B58" s="42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C58" s="67">
-        <f t="shared" ref="C58:C62" si="1">C50</f>
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="D58" s="68"/>
       <c r="E58" s="43">
-        <f t="shared" ref="E58:E62" si="2">I50</f>
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>125</v>
       </c>
       <c r="F58" s="44">
-        <f t="shared" ref="F58:F62" si="3">C58-E58</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-5</v>
       </c>
       <c r="G58" s="42">
-        <f t="shared" ref="G58:G62" si="4">F58/C58*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>-4.1666666666666661</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59" s="42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59" s="67">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D59" s="68"/>
       <c r="E59" s="43">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F59" s="44">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G59" s="42">
         <f t="shared" si="4"/>
-        <v>-8.3333333333333321</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60" s="42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" s="67">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D60" s="68"/>
       <c r="E60" s="43">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F60" s="44">
         <f t="shared" si="3"/>
@@ -2513,12 +2680,12 @@
       </c>
       <c r="G60" s="42">
         <f t="shared" si="4"/>
-        <v>-9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+        <v>-7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B61" s="42">
         <v>9</v>
@@ -2530,84 +2697,60 @@
       <c r="D61" s="68"/>
       <c r="E61" s="43">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F61" s="44">
         <f t="shared" si="3"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="G61" s="42">
         <f t="shared" si="4"/>
-        <v>-13.636363636363635</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="42">
-        <v>9</v>
-      </c>
-      <c r="C62" s="67">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="D62" s="68"/>
-      <c r="E62" s="43">
-        <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="F62" s="44">
-        <f t="shared" si="3"/>
-        <v>-20</v>
-      </c>
-      <c r="G62" s="42">
-        <f t="shared" si="4"/>
-        <v>-18.181818181818183</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:K36" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A7:K35" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>
-  <mergeCells count="57">
-    <mergeCell ref="C62:D62"/>
+  <mergeCells count="56">
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="I48:J48"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="I50:J50"/>
     <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I19:K19"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
     <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I47:J47"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:I2"/>
     <mergeCell ref="J1:K2"/>
@@ -2615,20 +2758,18 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="F3:I4"/>
     <mergeCell ref="B3:E4"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
